--- a/DataDistributionTesting.xlsx
+++ b/DataDistributionTesting.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpkhs\OneDrive - Danmarks Tekniske Universitet\School\Simulation in Operations Management\fishManufactureSimulatoin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s194717_dtu_dk/Documents/School/Simulation in Operations Management/fishManufactureSimulatoin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9907536-DE1D-486F-9C4C-B65E4AD3B92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D9907536-DE1D-486F-9C4C-B65E4AD3B92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E223FC-6DF5-447B-B942-C790EDEC5820}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,19 +37,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,9 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,1509 +351,1509 @@
   <dimension ref="A1:A300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A300"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
-        <v>296.2</v>
+      <c r="A1">
+        <v>4.9366666666666665</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>274.52999999999997</v>
+      <c r="A2">
+        <v>4.5754999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>315.47000000000003</v>
+      <c r="A3">
+        <v>5.257833333333334</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>305.76</v>
+      <c r="A4">
+        <v>5.0960000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>307.52999999999997</v>
+      <c r="A5">
+        <v>5.1254999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>293.52999999999997</v>
+      <c r="A6">
+        <v>4.8921666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>265.82</v>
+      <c r="A7">
+        <v>4.4303333333333335</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>380.44</v>
+      <c r="A8">
+        <v>6.3406666666666665</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>272.12</v>
+      <c r="A9">
+        <v>4.535333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>301.13</v>
+      <c r="A10">
+        <v>5.0188333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>373.54</v>
+      <c r="A11">
+        <v>6.2256666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>298.07</v>
+      <c r="A12">
+        <v>4.9678333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>310.99</v>
+      <c r="A13">
+        <v>5.1831666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>306.25</v>
+      <c r="A14">
+        <v>5.104166666666667</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>303.27999999999997</v>
+      <c r="A15">
+        <v>5.054666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>348.46</v>
+      <c r="A16">
+        <v>5.8076666666666661</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>266.55</v>
+      <c r="A17">
+        <v>4.4424999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>287.94</v>
+      <c r="A18">
+        <v>4.7990000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>333.41</v>
+      <c r="A19">
+        <v>5.5568333333333335</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>269.44</v>
+      <c r="A20">
+        <v>4.4906666666666668</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>301.66000000000003</v>
+      <c r="A21">
+        <v>5.0276666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>223.12</v>
+      <c r="A22">
+        <v>3.7186666666666666</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>312.82</v>
+      <c r="A23">
+        <v>5.2136666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>356.19</v>
+      <c r="A24">
+        <v>5.9364999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>313.41000000000003</v>
+      <c r="A25">
+        <v>5.2235000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>328.1</v>
+      <c r="A26">
+        <v>5.4683333333333337</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>367.88</v>
+      <c r="A27">
+        <v>6.1313333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>264.94</v>
+      <c r="A28">
+        <v>4.4156666666666666</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>283.37</v>
+      <c r="A29">
+        <v>4.722833333333333</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>235.1</v>
+      <c r="A30">
+        <v>3.9183333333333334</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>281.42</v>
+      <c r="A31">
+        <v>4.6903333333333332</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>220.66</v>
+      <c r="A32">
+        <v>3.6776666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>374.65</v>
+      <c r="A33">
+        <v>6.2441666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>274.24</v>
+      <c r="A34">
+        <v>4.5706666666666669</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>252.44</v>
+      <c r="A35">
+        <v>4.2073333333333336</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>387.68</v>
+      <c r="A36">
+        <v>6.4613333333333332</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>316.7</v>
+      <c r="A37">
+        <v>5.2783333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>320.7</v>
+      <c r="A38">
+        <v>5.3449999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>317.7</v>
+      <c r="A39">
+        <v>5.2949999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>359.18</v>
+      <c r="A40">
+        <v>5.9863333333333335</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>375.22</v>
+      <c r="A41">
+        <v>6.2536666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>280.04000000000002</v>
+      <c r="A42">
+        <v>4.6673333333333336</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>344.98</v>
+      <c r="A43">
+        <v>5.7496666666666671</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>360.83</v>
+      <c r="A44">
+        <v>6.0138333333333334</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>231.59</v>
+      <c r="A45">
+        <v>3.8598333333333334</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>296.14</v>
+      <c r="A46">
+        <v>4.9356666666666662</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>290.18</v>
+      <c r="A47">
+        <v>4.8363333333333332</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>256.49</v>
+      <c r="A48">
+        <v>4.2748333333333335</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>292.44</v>
+      <c r="A49">
+        <v>4.8739999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>274.62</v>
+      <c r="A50">
+        <v>4.577</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>354.47</v>
+      <c r="A51">
+        <v>5.9078333333333335</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>232.99</v>
+      <c r="A52">
+        <v>3.8831666666666669</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>340.96</v>
+      <c r="A53">
+        <v>5.6826666666666661</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>268.77</v>
+      <c r="A54">
+        <v>4.4794999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>307.87</v>
+      <c r="A55">
+        <v>5.1311666666666671</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>312.33999999999997</v>
+      <c r="A56">
+        <v>5.2056666666666667</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>281.52999999999997</v>
+      <c r="A57">
+        <v>4.6921666666666662</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>317.89999999999998</v>
+      <c r="A58">
+        <v>5.2983333333333329</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>315.37</v>
+      <c r="A59">
+        <v>5.2561666666666671</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>327.63</v>
+      <c r="A60">
+        <v>5.4604999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>277.99</v>
+      <c r="A61">
+        <v>4.6331666666666669</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>262.33</v>
+      <c r="A62">
+        <v>4.3721666666666668</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>370.47</v>
+      <c r="A63">
+        <v>6.1745000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>258.55</v>
+      <c r="A64">
+        <v>4.309166666666667</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>282.23</v>
+      <c r="A65">
+        <v>4.7038333333333338</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>309.87</v>
+      <c r="A66">
+        <v>5.1645000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>356.65</v>
+      <c r="A67">
+        <v>5.9441666666666659</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>272.01</v>
+      <c r="A68">
+        <v>4.5335000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>307.64</v>
+      <c r="A69">
+        <v>5.1273333333333335</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>316.74</v>
+      <c r="A70">
+        <v>5.2789999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>298.77</v>
+      <c r="A71">
+        <v>4.9794999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>245.51</v>
+      <c r="A72">
+        <v>4.0918333333333328</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>329.97</v>
+      <c r="A73">
+        <v>5.4995000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>260.55</v>
+      <c r="A74">
+        <v>4.3425000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>248.96</v>
+      <c r="A75">
+        <v>4.1493333333333338</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>275.66000000000003</v>
+      <c r="A76">
+        <v>4.594333333333334</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>285.33999999999997</v>
+      <c r="A77">
+        <v>4.7556666666666665</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>253.83</v>
+      <c r="A78">
+        <v>4.2305000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>331</v>
+      <c r="A79">
+        <v>5.5166666666666666</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>235.03</v>
+      <c r="A80">
+        <v>3.9171666666666667</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>287.88</v>
+      <c r="A81">
+        <v>4.798</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>330.8</v>
+      <c r="A82">
+        <v>5.5133333333333336</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>314.55</v>
+      <c r="A83">
+        <v>5.2425000000000006</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>337.23</v>
+      <c r="A84">
+        <v>5.6205000000000007</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>289.55</v>
+      <c r="A85">
+        <v>4.8258333333333336</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>333.71</v>
+      <c r="A86">
+        <v>5.5618333333333334</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>362.72</v>
+      <c r="A87">
+        <v>6.0453333333333337</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>248.92</v>
+      <c r="A88">
+        <v>4.1486666666666663</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>256.87</v>
+      <c r="A89">
+        <v>4.2811666666666666</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>380.6</v>
+      <c r="A90">
+        <v>6.3433333333333337</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>310.45</v>
+      <c r="A91">
+        <v>5.1741666666666664</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>278.88</v>
+      <c r="A92">
+        <v>4.6479999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>296.2</v>
+      <c r="A93">
+        <v>4.9366666666666665</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>282.45</v>
+      <c r="A94">
+        <v>4.7074999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>262.3</v>
+      <c r="A95">
+        <v>4.371666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>289.60000000000002</v>
+      <c r="A96">
+        <v>4.8266666666666671</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>265.16000000000003</v>
+      <c r="A97">
+        <v>4.4193333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>353.81</v>
+      <c r="A98">
+        <v>5.8968333333333334</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>291.02</v>
+      <c r="A99">
+        <v>4.8503333333333334</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>236.46</v>
+      <c r="A100">
+        <v>3.9410000000000003</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>390.69</v>
+      <c r="A101">
+        <v>6.5114999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>256.83</v>
+      <c r="A102">
+        <v>4.2805</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>240.12</v>
+      <c r="A103">
+        <v>4.0019999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>445.76</v>
+      <c r="A104">
+        <v>7.4293333333333331</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>268.3</v>
+      <c r="A105">
+        <v>4.4716666666666667</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>299.94</v>
+      <c r="A106">
+        <v>4.9989999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>251.25</v>
+      <c r="A107">
+        <v>4.1875</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>351.34</v>
+      <c r="A108">
+        <v>5.8556666666666661</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>294.02</v>
+      <c r="A109">
+        <v>4.9003333333333332</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>271.39</v>
+      <c r="A110">
+        <v>4.5231666666666666</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>242.88</v>
+      <c r="A111">
+        <v>4.048</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>322.41000000000003</v>
+      <c r="A112">
+        <v>5.3735000000000008</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>301.5</v>
+      <c r="A113">
+        <v>5.0250000000000004</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>318.97000000000003</v>
+      <c r="A114">
+        <v>5.3161666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>304.63</v>
+      <c r="A115">
+        <v>5.0771666666666668</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>403.38</v>
+      <c r="A116">
+        <v>6.7229999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>350.37</v>
+      <c r="A117">
+        <v>5.8395000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>324.26</v>
+      <c r="A118">
+        <v>5.4043333333333328</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>341.27</v>
+      <c r="A119">
+        <v>5.6878333333333329</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>247.79</v>
+      <c r="A120">
+        <v>4.129833333333333</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>314.62</v>
+      <c r="A121">
+        <v>5.2436666666666669</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>226.55</v>
+      <c r="A122">
+        <v>3.7758333333333334</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>244.01</v>
+      <c r="A123">
+        <v>4.0668333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>242.98</v>
+      <c r="A124">
+        <v>4.0496666666666661</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>225.42</v>
+      <c r="A125">
+        <v>3.7569999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>300.25</v>
+      <c r="A126">
+        <v>5.0041666666666664</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>276.49</v>
+      <c r="A127">
+        <v>4.6081666666666665</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>347.14</v>
+      <c r="A128">
+        <v>5.7856666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>249.43</v>
+      <c r="A129">
+        <v>4.1571666666666669</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>277.52999999999997</v>
+      <c r="A130">
+        <v>4.6254999999999997</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>267.01</v>
+      <c r="A131">
+        <v>4.4501666666666662</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>312.7</v>
+      <c r="A132">
+        <v>5.2116666666666669</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <v>267.93</v>
+      <c r="A133">
+        <v>4.4655000000000005</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <v>274.49</v>
+      <c r="A134">
+        <v>4.5748333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>343.87</v>
+      <c r="A135">
+        <v>5.7311666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
-        <v>261.67</v>
+      <c r="A136">
+        <v>4.3611666666666666</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
-        <v>382.95</v>
+      <c r="A137">
+        <v>6.3824999999999994</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>291.92</v>
+      <c r="A138">
+        <v>4.865333333333334</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <v>295.79000000000002</v>
+      <c r="A139">
+        <v>4.9298333333333337</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
-        <v>318.83999999999997</v>
+      <c r="A140">
+        <v>5.3139999999999992</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
-        <v>337.35</v>
+      <c r="A141">
+        <v>5.6225000000000005</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
-        <v>254.77</v>
+      <c r="A142">
+        <v>4.2461666666666664</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>298.56</v>
+      <c r="A143">
+        <v>4.976</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <v>304.72000000000003</v>
+      <c r="A144">
+        <v>5.0786666666666669</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
-        <v>303.07</v>
+      <c r="A145">
+        <v>5.0511666666666661</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
-        <v>291.45999999999998</v>
+      <c r="A146">
+        <v>4.8576666666666659</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
-        <v>298.72000000000003</v>
+      <c r="A147">
+        <v>4.9786666666666672</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
-        <v>344.54</v>
+      <c r="A148">
+        <v>5.7423333333333337</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
-        <v>309.83999999999997</v>
+      <c r="A149">
+        <v>5.1639999999999997</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
-        <v>411.77</v>
+      <c r="A150">
+        <v>6.8628333333333327</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
-        <v>221.77</v>
+      <c r="A151">
+        <v>3.696166666666667</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
-        <v>262.02</v>
+      <c r="A152">
+        <v>4.367</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
-        <v>264.36</v>
+      <c r="A153">
+        <v>4.4060000000000006</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
-        <v>236.68</v>
+      <c r="A154">
+        <v>3.944666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
-        <v>307.87</v>
+      <c r="A155">
+        <v>5.1311666666666671</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
-        <v>444.33</v>
+      <c r="A156">
+        <v>7.4055</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
-        <v>253.3</v>
+      <c r="A157">
+        <v>4.2216666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <v>235.51</v>
+      <c r="A158">
+        <v>3.9251666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>295.63</v>
+      <c r="A159">
+        <v>4.9271666666666665</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>230.03</v>
+      <c r="A160">
+        <v>3.8338333333333332</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>311.85000000000002</v>
+      <c r="A161">
+        <v>5.1975000000000007</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>352.03</v>
+      <c r="A162">
+        <v>5.867166666666666</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>339.87</v>
+      <c r="A163">
+        <v>5.6645000000000003</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>343.28</v>
+      <c r="A164">
+        <v>5.7213333333333329</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>244.92</v>
+      <c r="A165">
+        <v>4.0819999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>279.70999999999998</v>
+      <c r="A166">
+        <v>4.6618333333333331</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>241.3</v>
+      <c r="A167">
+        <v>4.0216666666666665</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>386.38</v>
+      <c r="A168">
+        <v>6.4396666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
-        <v>269.83999999999997</v>
+      <c r="A169">
+        <v>4.4973333333333327</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>267.77</v>
+      <c r="A170">
+        <v>4.4628333333333332</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
-        <v>308.95</v>
+      <c r="A171">
+        <v>5.1491666666666669</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
-        <v>257.35000000000002</v>
+      <c r="A172">
+        <v>4.2891666666666675</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
-        <v>318.77</v>
+      <c r="A173">
+        <v>5.3128333333333329</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
-        <v>290.70999999999998</v>
+      <c r="A174">
+        <v>4.8451666666666666</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>359.75</v>
+      <c r="A175">
+        <v>5.9958333333333336</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
-        <v>318.51</v>
+      <c r="A176">
+        <v>5.3084999999999996</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
-        <v>295.08</v>
+      <c r="A177">
+        <v>4.9180000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
-        <v>337.45</v>
+      <c r="A178">
+        <v>5.6241666666666665</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
-        <v>330.81</v>
+      <c r="A179">
+        <v>5.5134999999999996</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
-        <v>327.47000000000003</v>
+      <c r="A180">
+        <v>5.4578333333333342</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
-        <v>272.67</v>
+      <c r="A181">
+        <v>4.5445000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
-        <v>290.52</v>
+      <c r="A182">
+        <v>4.8419999999999996</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
-        <v>304.60000000000002</v>
+      <c r="A183">
+        <v>5.0766666666666671</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
-        <v>292.12</v>
+      <c r="A184">
+        <v>4.8686666666666669</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
-        <v>291.87</v>
+      <c r="A185">
+        <v>4.8645000000000005</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
-        <v>299.02999999999997</v>
+      <c r="A186">
+        <v>4.9838333333333331</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="1">
-        <v>328.8</v>
+      <c r="A187">
+        <v>5.48</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="1">
-        <v>287.19</v>
+      <c r="A188">
+        <v>4.7865000000000002</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
-        <v>293.99</v>
+      <c r="A189">
+        <v>4.8998333333333335</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="1">
-        <v>282.35000000000002</v>
+      <c r="A190">
+        <v>4.7058333333333335</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
-        <v>326.7</v>
+      <c r="A191">
+        <v>5.4449999999999994</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
-        <v>460.68</v>
+      <c r="A192">
+        <v>7.6779999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="1">
-        <v>319.76</v>
+      <c r="A193">
+        <v>5.3293333333333335</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="1">
-        <v>233.46</v>
+      <c r="A194">
+        <v>3.891</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="1">
-        <v>249.33</v>
+      <c r="A195">
+        <v>4.1555</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
-        <v>296.33999999999997</v>
+      <c r="A196">
+        <v>4.9389999999999992</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="1">
-        <v>382.43</v>
+      <c r="A197">
+        <v>6.3738333333333337</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="1">
-        <v>325.76</v>
+      <c r="A198">
+        <v>5.4293333333333331</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="1">
-        <v>318.61</v>
+      <c r="A199">
+        <v>5.3101666666666665</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="1">
-        <v>294.02</v>
+      <c r="A200">
+        <v>4.9003333333333332</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="1">
-        <v>272.17</v>
+      <c r="A201">
+        <v>4.5361666666666673</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="1">
-        <v>326.14999999999998</v>
+      <c r="A202">
+        <v>5.4358333333333331</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="1">
-        <v>326.63</v>
+      <c r="A203">
+        <v>5.4438333333333331</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="1">
-        <v>299.26</v>
+      <c r="A204">
+        <v>4.9876666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="1">
-        <v>294.45999999999998</v>
+      <c r="A205">
+        <v>4.9076666666666666</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
-        <v>327.33</v>
+      <c r="A206">
+        <v>5.4554999999999998</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="1">
-        <v>251.59</v>
+      <c r="A207">
+        <v>4.1931666666666665</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="1">
-        <v>267.66000000000003</v>
+      <c r="A208">
+        <v>4.4610000000000003</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="1">
-        <v>285.74</v>
+      <c r="A209">
+        <v>4.7623333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="1">
-        <v>382.2</v>
+      <c r="A210">
+        <v>6.37</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
-        <v>277.76</v>
+      <c r="A211">
+        <v>4.6293333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
-        <v>254.78</v>
+      <c r="A212">
+        <v>4.2463333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="1">
-        <v>373.9</v>
+      <c r="A213">
+        <v>6.2316666666666665</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="1">
-        <v>322.75</v>
+      <c r="A214">
+        <v>5.3791666666666664</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="1">
-        <v>236.39</v>
+      <c r="A215">
+        <v>3.9398333333333331</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="1">
-        <v>284.64999999999998</v>
+      <c r="A216">
+        <v>4.7441666666666666</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="1">
-        <v>308.77999999999997</v>
+      <c r="A217">
+        <v>5.1463333333333328</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="1">
-        <v>259.85000000000002</v>
+      <c r="A218">
+        <v>4.3308333333333335</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="1">
-        <v>261.60000000000002</v>
+      <c r="A219">
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="1">
-        <v>269.95999999999998</v>
+      <c r="A220">
+        <v>4.4993333333333334</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="1">
-        <v>280.47000000000003</v>
+      <c r="A221">
+        <v>4.6745000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="1">
-        <v>241.5</v>
+      <c r="A222">
+        <v>4.0250000000000004</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="1">
-        <v>318.12</v>
+      <c r="A223">
+        <v>5.3020000000000005</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" s="1">
-        <v>316.45</v>
+      <c r="A224">
+        <v>5.2741666666666669</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="1">
-        <v>241.64</v>
+      <c r="A225">
+        <v>4.027333333333333</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="1">
-        <v>333.09</v>
+      <c r="A226">
+        <v>5.5514999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="1">
-        <v>275.51</v>
+      <c r="A227">
+        <v>4.5918333333333328</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="1">
-        <v>229.34</v>
+      <c r="A228">
+        <v>3.8223333333333334</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="1">
-        <v>314.08999999999997</v>
+      <c r="A229">
+        <v>5.2348333333333326</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="1">
-        <v>367.23</v>
+      <c r="A230">
+        <v>6.1205000000000007</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="1">
-        <v>301.42</v>
+      <c r="A231">
+        <v>5.0236666666666672</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="1">
-        <v>282.45</v>
+      <c r="A232">
+        <v>4.7074999999999996</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="1">
-        <v>272.82</v>
+      <c r="A233">
+        <v>4.5469999999999997</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="1">
-        <v>291.32</v>
+      <c r="A234">
+        <v>4.8553333333333333</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="1">
-        <v>269.17</v>
+      <c r="A235">
+        <v>4.4861666666666666</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="1">
-        <v>226.76</v>
+      <c r="A236">
+        <v>3.7793333333333332</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="1">
-        <v>324.95999999999998</v>
+      <c r="A237">
+        <v>5.4159999999999995</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="1">
-        <v>259.93</v>
+      <c r="A238">
+        <v>4.3321666666666667</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="1">
-        <v>308.39999999999998</v>
+      <c r="A239">
+        <v>5.14</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="1">
-        <v>295.3</v>
+      <c r="A240">
+        <v>4.9216666666666669</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" s="1">
-        <v>229.64</v>
+      <c r="A241">
+        <v>3.8273333333333333</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="1">
-        <v>288.27999999999997</v>
+      <c r="A242">
+        <v>4.804666666666666</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" s="1">
-        <v>297.3</v>
+      <c r="A243">
+        <v>4.9550000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" s="1">
-        <v>297.16000000000003</v>
+      <c r="A244">
+        <v>4.9526666666666674</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" s="1">
-        <v>346.73</v>
+      <c r="A245">
+        <v>5.7788333333333339</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" s="1">
-        <v>316.75</v>
+      <c r="A246">
+        <v>5.2791666666666668</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="1">
-        <v>362.76</v>
+      <c r="A247">
+        <v>6.0460000000000003</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" s="1">
-        <v>383.54</v>
+      <c r="A248">
+        <v>6.3923333333333341</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="1">
-        <v>260.64</v>
+      <c r="A249">
+        <v>4.3439999999999994</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" s="1">
-        <v>243.31</v>
+      <c r="A250">
+        <v>4.0551666666666666</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" s="1">
-        <v>336.5</v>
+      <c r="A251">
+        <v>5.6083333333333334</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" s="1">
-        <v>266.62</v>
+      <c r="A252">
+        <v>4.4436666666666671</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" s="1">
-        <v>295.24</v>
+      <c r="A253">
+        <v>4.9206666666666665</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" s="1">
-        <v>295.54000000000002</v>
+      <c r="A254">
+        <v>4.9256666666666673</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" s="1">
-        <v>247.71</v>
+      <c r="A255">
+        <v>4.1284999999999998</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" s="1">
-        <v>276.55</v>
+      <c r="A256">
+        <v>4.6091666666666669</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" s="1">
-        <v>285.72000000000003</v>
+      <c r="A257">
+        <v>4.7620000000000005</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" s="1">
-        <v>392.78</v>
+      <c r="A258">
+        <v>6.5463333333333331</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" s="1">
-        <v>409.91</v>
+      <c r="A259">
+        <v>6.8318333333333339</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" s="1">
-        <v>324.93</v>
+      <c r="A260">
+        <v>5.4154999999999998</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" s="1">
-        <v>271.58999999999997</v>
+      <c r="A261">
+        <v>4.5264999999999995</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" s="1">
-        <v>229.75</v>
+      <c r="A262">
+        <v>3.8291666666666666</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" s="1">
-        <v>258.98</v>
+      <c r="A263">
+        <v>4.3163333333333336</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" s="1">
-        <v>277.74</v>
+      <c r="A264">
+        <v>4.6290000000000004</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" s="1">
-        <v>312.45999999999998</v>
+      <c r="A265">
+        <v>5.2076666666666664</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" s="1">
-        <v>328.54</v>
+      <c r="A266">
+        <v>5.4756666666666671</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" s="1">
-        <v>257.58</v>
+      <c r="A267">
+        <v>4.2930000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" s="1">
-        <v>345.11</v>
+      <c r="A268">
+        <v>5.7518333333333338</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" s="1">
-        <v>386.31</v>
+      <c r="A269">
+        <v>6.4385000000000003</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270" s="1">
-        <v>301.27</v>
+      <c r="A270">
+        <v>5.0211666666666668</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" s="1">
-        <v>316.77999999999997</v>
+      <c r="A271">
+        <v>5.2796666666666665</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272" s="1">
-        <v>285.75</v>
+      <c r="A272">
+        <v>4.7625000000000002</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" s="1">
-        <v>256.43</v>
+      <c r="A273">
+        <v>4.2738333333333332</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" s="1">
-        <v>297.18</v>
+      <c r="A274">
+        <v>4.9530000000000003</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" s="1">
-        <v>283.02</v>
+      <c r="A275">
+        <v>4.7169999999999996</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" s="1">
-        <v>279.14999999999998</v>
+      <c r="A276">
+        <v>4.6524999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" s="1">
-        <v>378.09</v>
+      <c r="A277">
+        <v>6.3014999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278" s="1">
-        <v>303.8</v>
+      <c r="A278">
+        <v>5.0633333333333335</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" s="1">
-        <v>243.78</v>
+      <c r="A279">
+        <v>4.0629999999999997</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280" s="1">
-        <v>321.8</v>
+      <c r="A280">
+        <v>5.3633333333333333</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" s="1">
-        <v>259.18</v>
+      <c r="A281">
+        <v>4.3196666666666665</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282" s="1">
-        <v>365.58</v>
+      <c r="A282">
+        <v>6.093</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283" s="1">
-        <v>276.16000000000003</v>
+      <c r="A283">
+        <v>4.6026666666666669</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" s="1">
-        <v>293.27</v>
+      <c r="A284">
+        <v>4.887833333333333</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285" s="1">
-        <v>304.38</v>
+      <c r="A285">
+        <v>5.0729999999999995</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286" s="1">
-        <v>305.3</v>
+      <c r="A286">
+        <v>5.0883333333333338</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" s="1">
-        <v>223.45</v>
+      <c r="A287">
+        <v>3.7241666666666666</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288" s="1">
-        <v>398.55</v>
+      <c r="A288">
+        <v>6.6425000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" s="1">
-        <v>421.02</v>
+      <c r="A289">
+        <v>7.0169999999999995</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290" s="1">
-        <v>250.78</v>
+      <c r="A290">
+        <v>4.1796666666666669</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" s="1">
-        <v>316.44</v>
+      <c r="A291">
+        <v>5.274</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" s="1">
-        <v>323.58</v>
+      <c r="A292">
+        <v>5.3929999999999998</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" s="1">
-        <v>353.48</v>
+      <c r="A293">
+        <v>5.8913333333333338</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" s="1">
-        <v>320.47000000000003</v>
+      <c r="A294">
+        <v>5.3411666666666671</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" s="1">
-        <v>322.45999999999998</v>
+      <c r="A295">
+        <v>5.3743333333333334</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296" s="1">
-        <v>274.85000000000002</v>
+      <c r="A296">
+        <v>4.5808333333333335</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" s="1">
-        <v>319.24</v>
+      <c r="A297">
+        <v>5.3206666666666669</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298" s="1">
-        <v>274.14</v>
+      <c r="A298">
+        <v>4.569</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299" s="1">
-        <v>334.9</v>
+      <c r="A299">
+        <v>5.5816666666666661</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" s="1">
-        <v>335.81</v>
+      <c r="A300">
+        <v>5.5968333333333335</v>
       </c>
     </row>
   </sheetData>
